--- a/configuration/fontExperiment.xlsx
+++ b/configuration/fontExperiment.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/denispelli/Dropbox/Font project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E7B8F2-BDB6-B84D-AAA9-CB5E32E42933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE5A6903-3563-C342-BF12-36166B7618C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="500" windowWidth="17100" windowHeight="14660" xr2:uid="{F69C2BA8-47DB-F84B-AF65-B4108097FF78}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="16500" windowHeight="14740" xr2:uid="{F69C2BA8-47DB-F84B-AF65-B4108097FF78}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="52">
   <si>
     <t>conditionName</t>
   </si>
@@ -117,27 +117,15 @@
     <t>spacingOverSizeRatio</t>
   </si>
   <si>
-    <t>fixationYes</t>
-  </si>
-  <si>
     <t>thresholdGuessLogSd</t>
   </si>
   <si>
     <t>conditionTrials</t>
   </si>
   <si>
-    <t>fixationStrokeLengthDeg</t>
-  </si>
-  <si>
-    <t>fixationStrokeThicknessDeg</t>
-  </si>
-  <si>
     <t>thresholdProbability</t>
   </si>
   <si>
-    <t>wirelessKeyboardNeededYes</t>
-  </si>
-  <si>
     <t>trackGazeYes</t>
   </si>
   <si>
@@ -169,16 +157,57 @@
   </si>
   <si>
     <t>blind</t>
+  </si>
+  <si>
+    <t>markingFixationStrokeLengthDeg</t>
+  </si>
+  <si>
+    <t>markingFixationStrokeThicknessDeg</t>
+  </si>
+  <si>
+    <t>markTheFixationYes</t>
+  </si>
+  <si>
+    <t>about</t>
+  </si>
+  <si>
+    <t>Effect of font on crowding.</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t>Denis Pelli</t>
+  </si>
+  <si>
+    <t>authorEmail</t>
+  </si>
+  <si>
+    <t>dp3@nyu.edu</t>
+  </si>
+  <si>
+    <t>aboutDateCreated</t>
+  </si>
+  <si>
+    <t>aboutDateModified</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -201,14 +230,37 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -521,17 +573,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE7DD8E1-A2C0-0B47-81D3-5D00E6EF579A}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:E11"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="11.5" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="10.83203125" style="1"/>
@@ -558,541 +610,570 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="1">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1">
-        <v>2</v>
+      <c r="A1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
+      <c r="A2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="8">
+        <v>44409</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="1">
-        <v>40</v>
-      </c>
-      <c r="C3" s="1">
-        <v>40</v>
-      </c>
-      <c r="D3" s="1">
-        <v>40</v>
-      </c>
-      <c r="E3" s="1">
-        <v>40</v>
+      <c r="A3" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="8">
+        <v>44423</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
+      <c r="A4" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.03</v>
+        <v>48</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="b">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" t="s">
-        <v>37</v>
+        <v>0</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" t="s">
-        <v>39</v>
+        <v>28</v>
+      </c>
+      <c r="B8" s="2">
+        <v>40</v>
+      </c>
+      <c r="C8" s="2">
+        <v>40</v>
+      </c>
+      <c r="D8" s="2">
+        <v>40</v>
+      </c>
+      <c r="E8" s="2">
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="A9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" t="s">
-        <v>41</v>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C10" t="b">
-        <v>0</v>
-      </c>
-      <c r="D10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10" t="b">
-        <v>0</v>
+      <c r="B10" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.03</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" t="s">
-        <v>44</v>
+      <c r="B11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>11</v>
+        <v>32</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1.4</v>
+        <v>34</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>15</v>
+        <v>36</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0.15</v>
+        <v>38</v>
+      </c>
+      <c r="B15" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C15" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D15" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="1">
-        <v>10</v>
-      </c>
-      <c r="C16" s="1">
-        <v>-10</v>
-      </c>
-      <c r="D16" s="1">
-        <v>10</v>
-      </c>
-      <c r="E16" s="1">
-        <v>-10</v>
+        <v>39</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="1">
-        <v>0</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1.4</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="1">
-        <v>8</v>
-      </c>
-      <c r="C21" s="1">
-        <v>8</v>
-      </c>
-      <c r="D21" s="1">
-        <v>8</v>
-      </c>
-      <c r="E21" s="1">
-        <v>8</v>
+        <v>22</v>
+      </c>
+      <c r="B21" s="2">
+        <v>10</v>
+      </c>
+      <c r="C21" s="2">
+        <v>-10</v>
+      </c>
+      <c r="D21" s="2">
+        <v>10</v>
+      </c>
+      <c r="E21" s="2">
+        <v>-10</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="1">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="C23" s="1">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="D23" s="1">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="E23" s="1">
-        <v>2.2999999999999998</v>
+        <v>2</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="C24" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="E24" s="1">
-        <v>0.01</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="1">
-        <v>2</v>
-      </c>
-      <c r="C25" s="1">
-        <v>2</v>
-      </c>
-      <c r="D25" s="1">
-        <v>2</v>
-      </c>
-      <c r="E25" s="1">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="1">
-        <v>3</v>
-      </c>
-      <c r="C26" s="1">
-        <v>3</v>
-      </c>
-      <c r="D26" s="1">
-        <v>3</v>
-      </c>
-      <c r="E26" s="1">
-        <v>3</v>
+        <v>25</v>
+      </c>
+      <c r="B26" s="2">
+        <v>8</v>
+      </c>
+      <c r="C26" s="2">
+        <v>8</v>
+      </c>
+      <c r="D26" s="2">
+        <v>8</v>
+      </c>
+      <c r="E26" s="2">
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>1</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="C28" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="D28" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="E28" s="1">
-        <v>0.7</v>
+        <v>4</v>
+      </c>
+      <c r="B28" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C28" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D28" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E28" s="2">
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C29" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D29" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E29" s="1" t="b">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0.01</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C30" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D30" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E30" s="1" t="b">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B30" s="2">
+        <v>2</v>
+      </c>
+      <c r="C30" s="2">
+        <v>2</v>
+      </c>
+      <c r="D30" s="2">
+        <v>2</v>
+      </c>
+      <c r="E30" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>20</v>
-      </c>
-      <c r="B31" s="1">
-        <v>40</v>
-      </c>
-      <c r="C31" s="1">
-        <v>40</v>
-      </c>
-      <c r="D31" s="1">
-        <v>40</v>
-      </c>
-      <c r="E31" s="1">
-        <v>40</v>
+        <v>27</v>
+      </c>
+      <c r="B31" s="2">
+        <v>3</v>
+      </c>
+      <c r="C31" s="2">
+        <v>3</v>
+      </c>
+      <c r="D31" s="2">
+        <v>3</v>
+      </c>
+      <c r="E31" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C32" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D32" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E32" s="1" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C34" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D34" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C35" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D35" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" s="2">
+        <v>40</v>
+      </c>
+      <c r="C36" s="2">
+        <v>40</v>
+      </c>
+      <c r="D36" s="2">
+        <v>40</v>
+      </c>
+      <c r="E36" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:AB35">
-    <sortCondition ref="A1:A35"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E5">
+    <sortCondition ref="A2:A5"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{1134B44E-E201-AF4A-8341-A238506DFAC9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/configuration/fontExperiment.xlsx
+++ b/configuration/fontExperiment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/denispelli/Dropbox/Font project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peilingjiang/Documents/github/EasyEyes/crowding/configuration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE5A6903-3563-C342-BF12-36166B7618C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD698D47-9ACD-0C47-B30A-B76477B9312D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="16500" windowHeight="14740" xr2:uid="{F69C2BA8-47DB-F84B-AF65-B4108097FF78}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="27820" windowHeight="17500" xr2:uid="{F69C2BA8-47DB-F84B-AF65-B4108097FF78}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="53">
   <si>
     <t>conditionName</t>
   </si>
@@ -190,6 +190,9 @@
   </si>
   <si>
     <t>aboutDateModified</t>
+  </si>
+  <si>
+    <t>wirelessKeyboardNeededYes</t>
   </si>
 </sst>
 </file>
@@ -576,14 +579,16 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="11.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" style="2" customWidth="1"/>
     <col min="6" max="6" width="13.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="10.83203125" style="1"/>
@@ -616,6 +621,15 @@
       <c r="B1" s="5" t="s">
         <v>45</v>
       </c>
+      <c r="C1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
@@ -624,6 +638,15 @@
       <c r="B2" s="8">
         <v>44409</v>
       </c>
+      <c r="C2" s="8">
+        <v>44409</v>
+      </c>
+      <c r="D2" s="8">
+        <v>44409</v>
+      </c>
+      <c r="E2" s="8">
+        <v>44409</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
@@ -632,6 +655,15 @@
       <c r="B3" s="8">
         <v>44423</v>
       </c>
+      <c r="C3" s="8">
+        <v>44423</v>
+      </c>
+      <c r="D3" s="8">
+        <v>44423</v>
+      </c>
+      <c r="E3" s="8">
+        <v>44423</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -640,6 +672,15 @@
       <c r="B4" s="8" t="s">
         <v>47</v>
       </c>
+      <c r="C4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -648,6 +689,15 @@
       <c r="B5" s="6" t="s">
         <v>49</v>
       </c>
+      <c r="C5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -1165,7 +1215,21 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37"/>
+      <c r="A37" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C37" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D37" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E37" s="2" t="b">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E5">
@@ -1173,6 +1237,9 @@
   </sortState>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1" xr:uid="{1134B44E-E201-AF4A-8341-A238506DFAC9}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{BE4C07E9-94B9-5349-B8A1-F4204DFE0077}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{D44FADA4-62F1-7E4E-ABEC-2ADA866179AD}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{7C1C45C6-E1A5-CF44-8D2C-8B0E0629653D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
